--- a/Test.xlsx
+++ b/Test.xlsx
@@ -27,21 +27,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>hotel_name</t>
+    <t>master_hotel_name</t>
   </si>
   <si>
-    <t>hotel_address</t>
+    <t>master_hotel_address</t>
   </si>
   <si>
-    <t>Super Collection O S B Excellency</t>
+    <t>Haeundae H Stay Hotel</t>
   </si>
   <si>
-    <t>1a, Basni Industrial Area, Near A I I M S, Jodhpur</t>
+    <t>620, Haeun-daero, Haeundae-gu</t>
+  </si>
+  <si>
+    <t>OCEAN BEACH RESORT</t>
+  </si>
+  <si>
+    <t>Mandarmani Coastal Police Station Village Silampur, PO Silampur, Mandarmani Coastal Thana, West Bengal</t>
   </si>
 </sst>
 </file>
@@ -54,7 +60,7 @@
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -74,13 +80,6 @@
       <color theme="1"/>
       <name val="Times New Roman"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -227,7 +226,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -393,12 +392,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -542,159 +535,162 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1026,13 +1022,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C311"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C2"/>
+      <selection activeCell="B2" sqref="B2:C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="3" width="10.2857142857143"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
@@ -1047,7 +1046,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="3">
-        <v>1599</v>
+        <v>3651</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>3</v>
@@ -1056,11 +1055,1559 @@
         <v>4</v>
       </c>
     </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="3">
+        <v>3652</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="5"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="5"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="5"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="5"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="5"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="5"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="5"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="5"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="5"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="5"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="5"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="5"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="5"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="5"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="5"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="5"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="5"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="5"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="5"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="5"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="5"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="5"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="5"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="5"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="5"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="5"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="5"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="3"/>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="5"/>
+      <c r="B39" s="3"/>
+      <c r="C39" s="3"/>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="5"/>
+      <c r="B40" s="3"/>
+      <c r="C40" s="3"/>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="5"/>
+      <c r="B41" s="3"/>
+      <c r="C41" s="3"/>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="5"/>
+      <c r="B42" s="3"/>
+      <c r="C42" s="3"/>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="5"/>
+      <c r="B43" s="3"/>
+      <c r="C43" s="3"/>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="5"/>
+      <c r="B44" s="3"/>
+      <c r="C44" s="3"/>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="5"/>
+      <c r="B45" s="3"/>
+      <c r="C45" s="3"/>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="5"/>
+      <c r="B46" s="3"/>
+      <c r="C46" s="3"/>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="5"/>
+      <c r="B47" s="3"/>
+      <c r="C47" s="3"/>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="5"/>
+      <c r="B48" s="3"/>
+      <c r="C48" s="3"/>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="5"/>
+      <c r="B49" s="3"/>
+      <c r="C49" s="3"/>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="5"/>
+      <c r="B50" s="3"/>
+      <c r="C50" s="3"/>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="5"/>
+      <c r="B51" s="3"/>
+      <c r="C51" s="3"/>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="5"/>
+      <c r="B52" s="3"/>
+      <c r="C52" s="3"/>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" s="5"/>
+      <c r="B53" s="3"/>
+      <c r="C53" s="3"/>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" s="5"/>
+      <c r="B54" s="3"/>
+      <c r="C54" s="3"/>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" s="5"/>
+      <c r="B55" s="3"/>
+      <c r="C55" s="3"/>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" s="5"/>
+      <c r="B56" s="3"/>
+      <c r="C56" s="3"/>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" s="5"/>
+      <c r="B57" s="3"/>
+      <c r="C57" s="3"/>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" s="5"/>
+      <c r="B58" s="3"/>
+      <c r="C58" s="3"/>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" s="5"/>
+      <c r="B59" s="3"/>
+      <c r="C59" s="3"/>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" s="5"/>
+      <c r="B60" s="3"/>
+      <c r="C60" s="3"/>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" s="5"/>
+      <c r="B61" s="3"/>
+      <c r="C61" s="3"/>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" s="5"/>
+      <c r="B62" s="3"/>
+      <c r="C62" s="3"/>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" s="5"/>
+      <c r="B63" s="3"/>
+      <c r="C63" s="3"/>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" s="5"/>
+      <c r="B64" s="3"/>
+      <c r="C64" s="3"/>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" s="5"/>
+      <c r="B65" s="3"/>
+      <c r="C65" s="3"/>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" s="5"/>
+      <c r="B66" s="3"/>
+      <c r="C66" s="3"/>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" s="5"/>
+      <c r="B67" s="3"/>
+      <c r="C67" s="3"/>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68" s="5"/>
+      <c r="B68" s="3"/>
+      <c r="C68" s="3"/>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69" s="5"/>
+      <c r="B69" s="3"/>
+      <c r="C69" s="3"/>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70" s="5"/>
+      <c r="B70" s="3"/>
+      <c r="C70" s="3"/>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71" s="5"/>
+      <c r="B71" s="3"/>
+      <c r="C71" s="3"/>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72" s="5"/>
+      <c r="B72" s="3"/>
+      <c r="C72" s="3"/>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73" s="5"/>
+      <c r="B73" s="3"/>
+      <c r="C73" s="3"/>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74" s="5"/>
+      <c r="B74" s="3"/>
+      <c r="C74" s="3"/>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75" s="5"/>
+      <c r="B75" s="3"/>
+      <c r="C75" s="3"/>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76" s="5"/>
+      <c r="B76" s="3"/>
+      <c r="C76" s="3"/>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77" s="5"/>
+      <c r="B77" s="3"/>
+      <c r="C77" s="3"/>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78" s="5"/>
+      <c r="B78" s="3"/>
+      <c r="C78" s="3"/>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79" s="5"/>
+      <c r="B79" s="3"/>
+      <c r="C79" s="3"/>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80" s="5"/>
+      <c r="B80" s="3"/>
+      <c r="C80" s="3"/>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81" s="5"/>
+      <c r="B81" s="3"/>
+      <c r="C81" s="3"/>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82" s="5"/>
+      <c r="B82" s="3"/>
+      <c r="C82" s="3"/>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83" s="5"/>
+      <c r="B83" s="3"/>
+      <c r="C83" s="3"/>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84" s="5"/>
+      <c r="B84" s="3"/>
+      <c r="C84" s="3"/>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85" s="5"/>
+      <c r="B85" s="3"/>
+      <c r="C85" s="3"/>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86" s="5"/>
+      <c r="B86" s="3"/>
+      <c r="C86" s="3"/>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87" s="5"/>
+      <c r="B87" s="3"/>
+      <c r="C87" s="3"/>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88" s="5"/>
+      <c r="B88" s="3"/>
+      <c r="C88" s="3"/>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89" s="5"/>
+      <c r="B89" s="3"/>
+      <c r="C89" s="3"/>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90" s="5"/>
+      <c r="B90" s="3"/>
+      <c r="C90" s="3"/>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91" s="5"/>
+      <c r="B91" s="3"/>
+      <c r="C91" s="3"/>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92" s="5"/>
+      <c r="B92" s="3"/>
+      <c r="C92" s="3"/>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93" s="5"/>
+      <c r="B93" s="3"/>
+      <c r="C93" s="3"/>
+    </row>
+    <row r="94" spans="1:3">
+      <c r="A94" s="5"/>
+      <c r="B94" s="3"/>
+      <c r="C94" s="3"/>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="A95" s="5"/>
+      <c r="B95" s="3"/>
+      <c r="C95" s="3"/>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="A96" s="5"/>
+      <c r="B96" s="3"/>
+      <c r="C96" s="3"/>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97" s="5"/>
+      <c r="B97" s="3"/>
+      <c r="C97" s="3"/>
+    </row>
+    <row r="98" spans="1:3">
+      <c r="A98" s="5"/>
+      <c r="B98" s="3"/>
+      <c r="C98" s="3"/>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="A99" s="5"/>
+      <c r="B99" s="3"/>
+      <c r="C99" s="3"/>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100" s="5"/>
+      <c r="B100" s="3"/>
+      <c r="C100" s="3"/>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="A101" s="5"/>
+      <c r="B101" s="3"/>
+      <c r="C101" s="3"/>
+    </row>
+    <row r="102" spans="1:3">
+      <c r="A102" s="5"/>
+      <c r="B102" s="3"/>
+      <c r="C102" s="3"/>
+    </row>
+    <row r="103" spans="1:3">
+      <c r="A103" s="5"/>
+      <c r="B103" s="3"/>
+      <c r="C103" s="3"/>
+    </row>
+    <row r="104" spans="1:3">
+      <c r="A104" s="5"/>
+      <c r="B104" s="3"/>
+      <c r="C104" s="3"/>
+    </row>
+    <row r="105" spans="1:3">
+      <c r="A105" s="5"/>
+      <c r="B105" s="3"/>
+      <c r="C105" s="3"/>
+    </row>
+    <row r="106" spans="1:3">
+      <c r="A106" s="5"/>
+      <c r="B106" s="3"/>
+      <c r="C106" s="3"/>
+    </row>
+    <row r="107" spans="1:3">
+      <c r="A107" s="5"/>
+      <c r="B107" s="3"/>
+      <c r="C107" s="3"/>
+    </row>
+    <row r="108" spans="1:3">
+      <c r="A108" s="5"/>
+      <c r="B108" s="3"/>
+      <c r="C108" s="3"/>
+    </row>
+    <row r="109" spans="1:3">
+      <c r="A109" s="5"/>
+      <c r="B109" s="3"/>
+      <c r="C109" s="3"/>
+    </row>
+    <row r="110" spans="1:3">
+      <c r="A110" s="5"/>
+      <c r="B110" s="3"/>
+      <c r="C110" s="3"/>
+    </row>
+    <row r="111" spans="1:3">
+      <c r="A111" s="5"/>
+      <c r="B111" s="3"/>
+      <c r="C111" s="3"/>
+    </row>
+    <row r="112" spans="1:3">
+      <c r="A112" s="5"/>
+      <c r="B112" s="3"/>
+      <c r="C112" s="3"/>
+    </row>
+    <row r="113" spans="1:3">
+      <c r="A113" s="5"/>
+      <c r="B113" s="3"/>
+      <c r="C113" s="3"/>
+    </row>
+    <row r="114" spans="1:3">
+      <c r="A114" s="5"/>
+      <c r="B114" s="3"/>
+      <c r="C114" s="3"/>
+    </row>
+    <row r="115" spans="1:3">
+      <c r="A115" s="5"/>
+      <c r="B115" s="3"/>
+      <c r="C115" s="3"/>
+    </row>
+    <row r="116" spans="1:3">
+      <c r="A116" s="5"/>
+      <c r="B116" s="3"/>
+      <c r="C116" s="3"/>
+    </row>
+    <row r="117" spans="1:3">
+      <c r="A117" s="5"/>
+      <c r="B117" s="3"/>
+      <c r="C117" s="3"/>
+    </row>
+    <row r="118" spans="1:3">
+      <c r="A118" s="5"/>
+      <c r="B118" s="3"/>
+      <c r="C118" s="3"/>
+    </row>
+    <row r="119" spans="1:3">
+      <c r="A119" s="5"/>
+      <c r="B119" s="3"/>
+      <c r="C119" s="3"/>
+    </row>
+    <row r="120" spans="1:3">
+      <c r="A120" s="5"/>
+      <c r="B120" s="3"/>
+      <c r="C120" s="3"/>
+    </row>
+    <row r="121" spans="1:3">
+      <c r="A121" s="5"/>
+      <c r="B121" s="3"/>
+      <c r="C121" s="3"/>
+    </row>
+    <row r="122" spans="1:3">
+      <c r="A122" s="5"/>
+      <c r="B122" s="3"/>
+      <c r="C122" s="3"/>
+    </row>
+    <row r="123" spans="1:3">
+      <c r="A123" s="5"/>
+      <c r="B123" s="3"/>
+      <c r="C123" s="3"/>
+    </row>
+    <row r="124" spans="1:3">
+      <c r="A124" s="5"/>
+      <c r="B124" s="3"/>
+      <c r="C124" s="3"/>
+    </row>
+    <row r="125" spans="1:3">
+      <c r="A125" s="5"/>
+      <c r="B125" s="3"/>
+      <c r="C125" s="3"/>
+    </row>
+    <row r="126" spans="1:3">
+      <c r="A126" s="5"/>
+      <c r="B126" s="3"/>
+      <c r="C126" s="3"/>
+    </row>
+    <row r="127" spans="1:3">
+      <c r="A127" s="5"/>
+      <c r="B127" s="3"/>
+      <c r="C127" s="3"/>
+    </row>
+    <row r="128" spans="1:3">
+      <c r="A128" s="5"/>
+      <c r="B128" s="3"/>
+      <c r="C128" s="3"/>
+    </row>
+    <row r="129" spans="1:3">
+      <c r="A129" s="5"/>
+      <c r="B129" s="3"/>
+      <c r="C129" s="3"/>
+    </row>
+    <row r="130" spans="1:3">
+      <c r="A130" s="5"/>
+      <c r="B130" s="3"/>
+      <c r="C130" s="3"/>
+    </row>
+    <row r="131" spans="1:3">
+      <c r="A131" s="5"/>
+      <c r="B131" s="3"/>
+      <c r="C131" s="3"/>
+    </row>
+    <row r="132" spans="1:3">
+      <c r="A132" s="5"/>
+      <c r="B132" s="3"/>
+      <c r="C132" s="3"/>
+    </row>
+    <row r="133" spans="1:3">
+      <c r="A133" s="5"/>
+      <c r="B133" s="3"/>
+      <c r="C133" s="3"/>
+    </row>
+    <row r="134" spans="1:3">
+      <c r="A134" s="5"/>
+      <c r="B134" s="3"/>
+      <c r="C134" s="3"/>
+    </row>
+    <row r="135" spans="1:3">
+      <c r="A135" s="5"/>
+      <c r="B135" s="3"/>
+      <c r="C135" s="3"/>
+    </row>
+    <row r="136" spans="1:3">
+      <c r="A136" s="5"/>
+      <c r="B136" s="3"/>
+      <c r="C136" s="3"/>
+    </row>
+    <row r="137" spans="1:3">
+      <c r="A137" s="5"/>
+      <c r="B137" s="3"/>
+      <c r="C137" s="3"/>
+    </row>
+    <row r="138" spans="1:3">
+      <c r="A138" s="5"/>
+      <c r="B138" s="3"/>
+      <c r="C138" s="3"/>
+    </row>
+    <row r="139" spans="1:3">
+      <c r="A139" s="5"/>
+      <c r="B139" s="3"/>
+      <c r="C139" s="3"/>
+    </row>
+    <row r="140" spans="1:3">
+      <c r="A140" s="5"/>
+      <c r="B140" s="3"/>
+      <c r="C140" s="3"/>
+    </row>
+    <row r="141" spans="1:3">
+      <c r="A141" s="5"/>
+      <c r="B141" s="3"/>
+      <c r="C141" s="3"/>
+    </row>
+    <row r="142" spans="1:3">
+      <c r="A142" s="5"/>
+      <c r="B142" s="3"/>
+      <c r="C142" s="3"/>
+    </row>
+    <row r="143" spans="1:3">
+      <c r="A143" s="5"/>
+      <c r="B143" s="3"/>
+      <c r="C143" s="3"/>
+    </row>
+    <row r="144" spans="1:3">
+      <c r="A144" s="5"/>
+      <c r="B144" s="3"/>
+      <c r="C144" s="3"/>
+    </row>
+    <row r="145" spans="1:3">
+      <c r="A145" s="5"/>
+      <c r="B145" s="3"/>
+      <c r="C145" s="3"/>
+    </row>
+    <row r="146" spans="1:3">
+      <c r="A146" s="5"/>
+      <c r="B146" s="3"/>
+      <c r="C146" s="3"/>
+    </row>
+    <row r="147" spans="1:3">
+      <c r="A147" s="5"/>
+      <c r="B147" s="3"/>
+      <c r="C147" s="3"/>
+    </row>
+    <row r="148" spans="1:3">
+      <c r="A148" s="5"/>
+      <c r="B148" s="3"/>
+      <c r="C148" s="3"/>
+    </row>
+    <row r="149" spans="1:3">
+      <c r="A149" s="5"/>
+      <c r="B149" s="3"/>
+      <c r="C149" s="3"/>
+    </row>
+    <row r="150" spans="1:3">
+      <c r="A150" s="5"/>
+      <c r="B150" s="3"/>
+      <c r="C150" s="3"/>
+    </row>
+    <row r="151" spans="1:3">
+      <c r="A151" s="5"/>
+      <c r="B151" s="3"/>
+      <c r="C151" s="3"/>
+    </row>
+    <row r="152" spans="1:3">
+      <c r="A152" s="5"/>
+      <c r="B152" s="3"/>
+      <c r="C152" s="3"/>
+    </row>
+    <row r="153" spans="1:3">
+      <c r="A153" s="5"/>
+      <c r="B153" s="3"/>
+      <c r="C153" s="3"/>
+    </row>
+    <row r="154" spans="1:3">
+      <c r="A154" s="5"/>
+      <c r="B154" s="3"/>
+      <c r="C154" s="3"/>
+    </row>
+    <row r="155" spans="1:3">
+      <c r="A155" s="5"/>
+      <c r="B155" s="3"/>
+      <c r="C155" s="3"/>
+    </row>
+    <row r="156" spans="1:3">
+      <c r="A156" s="5"/>
+      <c r="B156" s="3"/>
+      <c r="C156" s="3"/>
+    </row>
+    <row r="157" spans="1:3">
+      <c r="A157" s="5"/>
+      <c r="B157" s="3"/>
+      <c r="C157" s="3"/>
+    </row>
+    <row r="158" spans="1:3">
+      <c r="A158" s="5"/>
+      <c r="B158" s="3"/>
+      <c r="C158" s="3"/>
+    </row>
+    <row r="159" spans="1:3">
+      <c r="A159" s="5"/>
+      <c r="B159" s="3"/>
+      <c r="C159" s="3"/>
+    </row>
+    <row r="160" spans="1:3">
+      <c r="A160" s="5"/>
+      <c r="B160" s="3"/>
+      <c r="C160" s="3"/>
+    </row>
+    <row r="161" spans="1:3">
+      <c r="A161" s="5"/>
+      <c r="B161" s="3"/>
+      <c r="C161" s="3"/>
+    </row>
+    <row r="162" spans="1:3">
+      <c r="A162" s="5"/>
+      <c r="B162" s="3"/>
+      <c r="C162" s="3"/>
+    </row>
+    <row r="163" spans="1:3">
+      <c r="A163" s="5"/>
+      <c r="B163" s="3"/>
+      <c r="C163" s="3"/>
+    </row>
+    <row r="164" spans="1:3">
+      <c r="A164" s="5"/>
+      <c r="B164" s="3"/>
+      <c r="C164" s="3"/>
+    </row>
+    <row r="165" spans="1:3">
+      <c r="A165" s="5"/>
+      <c r="B165" s="3"/>
+      <c r="C165" s="3"/>
+    </row>
+    <row r="166" spans="1:3">
+      <c r="A166" s="5"/>
+      <c r="B166" s="3"/>
+      <c r="C166" s="3"/>
+    </row>
+    <row r="167" spans="1:3">
+      <c r="A167" s="5"/>
+      <c r="B167" s="3"/>
+      <c r="C167" s="3"/>
+    </row>
+    <row r="168" spans="1:3">
+      <c r="A168" s="5"/>
+      <c r="B168" s="3"/>
+      <c r="C168" s="3"/>
+    </row>
+    <row r="169" spans="1:3">
+      <c r="A169" s="5"/>
+      <c r="B169" s="3"/>
+      <c r="C169" s="3"/>
+    </row>
+    <row r="170" spans="1:3">
+      <c r="A170" s="5"/>
+      <c r="B170" s="3"/>
+      <c r="C170" s="3"/>
+    </row>
+    <row r="171" spans="1:3">
+      <c r="A171" s="5"/>
+      <c r="B171" s="3"/>
+      <c r="C171" s="3"/>
+    </row>
+    <row r="172" spans="1:3">
+      <c r="A172" s="5"/>
+      <c r="B172" s="3"/>
+      <c r="C172" s="3"/>
+    </row>
+    <row r="173" spans="1:3">
+      <c r="A173" s="5"/>
+      <c r="B173" s="3"/>
+      <c r="C173" s="3"/>
+    </row>
+    <row r="174" spans="1:3">
+      <c r="A174" s="5"/>
+      <c r="B174" s="3"/>
+      <c r="C174" s="3"/>
+    </row>
+    <row r="175" spans="1:3">
+      <c r="A175" s="5"/>
+      <c r="B175" s="3"/>
+      <c r="C175" s="3"/>
+    </row>
+    <row r="176" spans="1:3">
+      <c r="A176" s="5"/>
+      <c r="B176" s="3"/>
+      <c r="C176" s="3"/>
+    </row>
+    <row r="177" spans="1:3">
+      <c r="A177" s="5"/>
+      <c r="B177" s="3"/>
+      <c r="C177" s="3"/>
+    </row>
+    <row r="178" spans="1:3">
+      <c r="A178" s="5"/>
+      <c r="B178" s="3"/>
+      <c r="C178" s="3"/>
+    </row>
+    <row r="179" spans="1:3">
+      <c r="A179" s="5"/>
+      <c r="B179" s="3"/>
+      <c r="C179" s="3"/>
+    </row>
+    <row r="180" spans="1:3">
+      <c r="A180" s="5"/>
+      <c r="B180" s="3"/>
+      <c r="C180" s="3"/>
+    </row>
+    <row r="181" spans="1:3">
+      <c r="A181" s="5"/>
+      <c r="B181" s="3"/>
+      <c r="C181" s="3"/>
+    </row>
+    <row r="182" spans="1:3">
+      <c r="A182" s="5"/>
+      <c r="B182" s="3"/>
+      <c r="C182" s="3"/>
+    </row>
+    <row r="183" spans="1:3">
+      <c r="A183" s="5"/>
+      <c r="B183" s="3"/>
+      <c r="C183" s="3"/>
+    </row>
+    <row r="184" spans="1:3">
+      <c r="A184" s="5"/>
+      <c r="B184" s="3"/>
+      <c r="C184" s="3"/>
+    </row>
+    <row r="185" spans="1:3">
+      <c r="A185" s="5"/>
+      <c r="B185" s="3"/>
+      <c r="C185" s="3"/>
+    </row>
+    <row r="186" spans="1:3">
+      <c r="A186" s="5"/>
+      <c r="B186" s="3"/>
+      <c r="C186" s="3"/>
+    </row>
+    <row r="187" spans="1:3">
+      <c r="A187" s="5"/>
+      <c r="B187" s="3"/>
+      <c r="C187" s="3"/>
+    </row>
+    <row r="188" spans="1:3">
+      <c r="A188" s="5"/>
+      <c r="B188" s="3"/>
+      <c r="C188" s="3"/>
+    </row>
+    <row r="189" spans="1:3">
+      <c r="A189" s="5"/>
+      <c r="B189" s="3"/>
+      <c r="C189" s="3"/>
+    </row>
+    <row r="190" spans="1:3">
+      <c r="A190" s="5"/>
+      <c r="B190" s="3"/>
+      <c r="C190" s="3"/>
+    </row>
+    <row r="191" spans="1:3">
+      <c r="A191" s="5"/>
+      <c r="B191" s="3"/>
+      <c r="C191" s="3"/>
+    </row>
+    <row r="192" spans="1:3">
+      <c r="A192" s="5"/>
+      <c r="B192" s="3"/>
+      <c r="C192" s="3"/>
+    </row>
+    <row r="193" spans="1:3">
+      <c r="A193" s="5"/>
+      <c r="B193" s="3"/>
+      <c r="C193" s="3"/>
+    </row>
+    <row r="194" spans="1:3">
+      <c r="A194" s="5"/>
+      <c r="B194" s="3"/>
+      <c r="C194" s="3"/>
+    </row>
+    <row r="195" spans="1:3">
+      <c r="A195" s="5"/>
+      <c r="B195" s="3"/>
+      <c r="C195" s="3"/>
+    </row>
+    <row r="196" spans="1:3">
+      <c r="A196" s="5"/>
+      <c r="B196" s="3"/>
+      <c r="C196" s="3"/>
+    </row>
+    <row r="197" spans="1:3">
+      <c r="A197" s="5"/>
+      <c r="B197" s="3"/>
+      <c r="C197" s="3"/>
+    </row>
+    <row r="198" spans="1:3">
+      <c r="A198" s="5"/>
+      <c r="B198" s="3"/>
+      <c r="C198" s="3"/>
+    </row>
+    <row r="199" spans="1:3">
+      <c r="A199" s="5"/>
+      <c r="B199" s="3"/>
+      <c r="C199" s="3"/>
+    </row>
+    <row r="200" spans="1:3">
+      <c r="A200" s="5"/>
+      <c r="B200" s="3"/>
+      <c r="C200" s="3"/>
+    </row>
+    <row r="201" spans="1:3">
+      <c r="A201" s="5"/>
+      <c r="B201" s="3"/>
+      <c r="C201" s="3"/>
+    </row>
+    <row r="202" spans="1:3">
+      <c r="A202" s="5"/>
+      <c r="B202" s="3"/>
+      <c r="C202" s="3"/>
+    </row>
+    <row r="203" spans="1:3">
+      <c r="A203" s="5"/>
+      <c r="B203" s="3"/>
+      <c r="C203" s="3"/>
+    </row>
+    <row r="204" spans="1:3">
+      <c r="A204" s="5"/>
+      <c r="B204" s="3"/>
+      <c r="C204" s="3"/>
+    </row>
+    <row r="205" spans="1:3">
+      <c r="A205" s="5"/>
+      <c r="B205" s="3"/>
+      <c r="C205" s="3"/>
+    </row>
+    <row r="206" spans="1:3">
+      <c r="A206" s="5"/>
+      <c r="B206" s="3"/>
+      <c r="C206" s="3"/>
+    </row>
+    <row r="207" spans="1:3">
+      <c r="A207" s="5"/>
+      <c r="B207" s="3"/>
+      <c r="C207" s="3"/>
+    </row>
+    <row r="208" spans="1:3">
+      <c r="A208" s="5"/>
+      <c r="B208" s="3"/>
+      <c r="C208" s="3"/>
+    </row>
+    <row r="209" spans="1:3">
+      <c r="A209" s="5"/>
+      <c r="B209" s="3"/>
+      <c r="C209" s="3"/>
+    </row>
+    <row r="210" spans="1:3">
+      <c r="A210" s="5"/>
+      <c r="B210" s="3"/>
+      <c r="C210" s="3"/>
+    </row>
+    <row r="211" spans="1:3">
+      <c r="A211" s="5"/>
+      <c r="B211" s="3"/>
+      <c r="C211" s="3"/>
+    </row>
+    <row r="212" spans="1:3">
+      <c r="A212" s="5"/>
+      <c r="B212" s="3"/>
+      <c r="C212" s="3"/>
+    </row>
+    <row r="213" spans="1:3">
+      <c r="A213" s="5"/>
+      <c r="B213" s="3"/>
+      <c r="C213" s="3"/>
+    </row>
+    <row r="214" spans="1:3">
+      <c r="A214" s="5"/>
+      <c r="B214" s="3"/>
+      <c r="C214" s="3"/>
+    </row>
+    <row r="215" spans="1:3">
+      <c r="A215" s="5"/>
+      <c r="B215" s="3"/>
+      <c r="C215" s="3"/>
+    </row>
+    <row r="216" spans="1:3">
+      <c r="A216" s="5"/>
+      <c r="B216" s="3"/>
+      <c r="C216" s="3"/>
+    </row>
+    <row r="217" spans="1:3">
+      <c r="A217" s="5"/>
+      <c r="B217" s="3"/>
+      <c r="C217" s="3"/>
+    </row>
+    <row r="218" spans="1:3">
+      <c r="A218" s="5"/>
+      <c r="B218" s="3"/>
+      <c r="C218" s="3"/>
+    </row>
+    <row r="219" spans="1:3">
+      <c r="A219" s="5"/>
+      <c r="B219" s="3"/>
+      <c r="C219" s="3"/>
+    </row>
+    <row r="220" spans="1:3">
+      <c r="A220" s="5"/>
+      <c r="B220" s="3"/>
+      <c r="C220" s="3"/>
+    </row>
+    <row r="221" spans="1:3">
+      <c r="A221" s="5"/>
+      <c r="B221" s="3"/>
+      <c r="C221" s="3"/>
+    </row>
+    <row r="222" spans="1:3">
+      <c r="A222" s="5"/>
+      <c r="B222" s="3"/>
+      <c r="C222" s="3"/>
+    </row>
+    <row r="223" spans="1:3">
+      <c r="A223" s="5"/>
+      <c r="B223" s="3"/>
+      <c r="C223" s="3"/>
+    </row>
+    <row r="224" spans="1:3">
+      <c r="A224" s="5"/>
+      <c r="B224" s="3"/>
+      <c r="C224" s="3"/>
+    </row>
+    <row r="225" spans="1:3">
+      <c r="A225" s="5"/>
+      <c r="B225" s="3"/>
+      <c r="C225" s="3"/>
+    </row>
+    <row r="226" spans="1:3">
+      <c r="A226" s="5"/>
+      <c r="B226" s="3"/>
+      <c r="C226" s="3"/>
+    </row>
+    <row r="227" spans="1:3">
+      <c r="A227" s="5"/>
+      <c r="B227" s="3"/>
+      <c r="C227" s="3"/>
+    </row>
+    <row r="228" spans="1:3">
+      <c r="A228" s="5"/>
+      <c r="B228" s="3"/>
+      <c r="C228" s="3"/>
+    </row>
+    <row r="229" spans="1:3">
+      <c r="A229" s="5"/>
+      <c r="B229" s="3"/>
+      <c r="C229" s="3"/>
+    </row>
+    <row r="230" spans="1:3">
+      <c r="A230" s="5"/>
+      <c r="B230" s="3"/>
+      <c r="C230" s="3"/>
+    </row>
+    <row r="231" spans="1:3">
+      <c r="A231" s="5"/>
+      <c r="B231" s="3"/>
+      <c r="C231" s="3"/>
+    </row>
+    <row r="232" spans="1:3">
+      <c r="A232" s="5"/>
+      <c r="B232" s="3"/>
+      <c r="C232" s="3"/>
+    </row>
+    <row r="233" spans="1:3">
+      <c r="A233" s="5"/>
+      <c r="B233" s="3"/>
+      <c r="C233" s="3"/>
+    </row>
+    <row r="234" spans="1:3">
+      <c r="A234" s="5"/>
+      <c r="B234" s="3"/>
+      <c r="C234" s="3"/>
+    </row>
+    <row r="235" spans="1:3">
+      <c r="A235" s="5"/>
+      <c r="B235" s="3"/>
+      <c r="C235" s="3"/>
+    </row>
+    <row r="236" spans="1:3">
+      <c r="A236" s="5"/>
+      <c r="B236" s="3"/>
+      <c r="C236" s="3"/>
+    </row>
+    <row r="237" spans="1:3">
+      <c r="A237" s="5"/>
+      <c r="B237" s="3"/>
+      <c r="C237" s="3"/>
+    </row>
+    <row r="238" spans="1:3">
+      <c r="A238" s="5"/>
+      <c r="B238" s="3"/>
+      <c r="C238" s="3"/>
+    </row>
+    <row r="239" spans="1:3">
+      <c r="A239" s="5"/>
+      <c r="B239" s="3"/>
+      <c r="C239" s="3"/>
+    </row>
+    <row r="240" spans="1:3">
+      <c r="A240" s="5"/>
+      <c r="B240" s="3"/>
+      <c r="C240" s="3"/>
+    </row>
+    <row r="241" spans="1:3">
+      <c r="A241" s="5"/>
+      <c r="B241" s="3"/>
+      <c r="C241" s="3"/>
+    </row>
+    <row r="242" spans="1:3">
+      <c r="A242" s="5"/>
+      <c r="B242" s="3"/>
+      <c r="C242" s="3"/>
+    </row>
+    <row r="243" spans="1:3">
+      <c r="A243" s="5"/>
+      <c r="B243" s="3"/>
+      <c r="C243" s="3"/>
+    </row>
+    <row r="244" spans="1:3">
+      <c r="A244" s="5"/>
+      <c r="B244" s="3"/>
+      <c r="C244" s="3"/>
+    </row>
+    <row r="245" spans="1:3">
+      <c r="A245" s="5"/>
+      <c r="B245" s="3"/>
+      <c r="C245" s="3"/>
+    </row>
+    <row r="246" spans="1:3">
+      <c r="A246" s="5"/>
+      <c r="B246" s="3"/>
+      <c r="C246" s="3"/>
+    </row>
+    <row r="247" spans="1:3">
+      <c r="A247" s="5"/>
+      <c r="B247" s="3"/>
+      <c r="C247" s="3"/>
+    </row>
+    <row r="248" spans="1:3">
+      <c r="A248" s="5"/>
+      <c r="B248" s="3"/>
+      <c r="C248" s="3"/>
+    </row>
+    <row r="249" spans="1:3">
+      <c r="A249" s="5"/>
+      <c r="B249" s="3"/>
+      <c r="C249" s="3"/>
+    </row>
+    <row r="250" spans="1:3">
+      <c r="A250" s="5"/>
+      <c r="B250" s="3"/>
+      <c r="C250" s="3"/>
+    </row>
+    <row r="251" spans="1:3">
+      <c r="A251" s="5"/>
+      <c r="B251" s="3"/>
+      <c r="C251" s="3"/>
+    </row>
+    <row r="252" spans="1:3">
+      <c r="A252" s="5"/>
+      <c r="B252" s="3"/>
+      <c r="C252" s="3"/>
+    </row>
+    <row r="253" spans="1:3">
+      <c r="A253" s="5"/>
+      <c r="B253" s="3"/>
+      <c r="C253" s="3"/>
+    </row>
+    <row r="254" spans="1:3">
+      <c r="A254" s="5"/>
+      <c r="B254" s="3"/>
+      <c r="C254" s="3"/>
+    </row>
+    <row r="255" spans="1:3">
+      <c r="A255" s="5"/>
+      <c r="B255" s="3"/>
+      <c r="C255" s="3"/>
+    </row>
+    <row r="256" spans="1:3">
+      <c r="A256" s="5"/>
+      <c r="B256" s="3"/>
+      <c r="C256" s="3"/>
+    </row>
+    <row r="257" spans="1:3">
+      <c r="A257" s="5"/>
+      <c r="B257" s="3"/>
+      <c r="C257" s="3"/>
+    </row>
+    <row r="258" spans="1:3">
+      <c r="A258" s="5"/>
+      <c r="B258" s="3"/>
+      <c r="C258" s="3"/>
+    </row>
+    <row r="259" spans="1:3">
+      <c r="A259" s="5"/>
+      <c r="B259" s="3"/>
+      <c r="C259" s="3"/>
+    </row>
+    <row r="260" spans="1:3">
+      <c r="A260" s="5"/>
+      <c r="B260" s="3"/>
+      <c r="C260" s="3"/>
+    </row>
+    <row r="261" spans="1:3">
+      <c r="A261" s="5"/>
+      <c r="B261" s="3"/>
+      <c r="C261" s="3"/>
+    </row>
+    <row r="262" spans="1:3">
+      <c r="A262" s="5"/>
+      <c r="B262" s="3"/>
+      <c r="C262" s="3"/>
+    </row>
+    <row r="263" spans="1:3">
+      <c r="A263" s="5"/>
+      <c r="B263" s="3"/>
+      <c r="C263" s="3"/>
+    </row>
+    <row r="264" spans="1:3">
+      <c r="A264" s="5"/>
+      <c r="B264" s="3"/>
+      <c r="C264" s="3"/>
+    </row>
+    <row r="265" spans="1:3">
+      <c r="A265" s="5"/>
+      <c r="B265" s="3"/>
+      <c r="C265" s="3"/>
+    </row>
+    <row r="266" spans="1:3">
+      <c r="A266" s="5"/>
+      <c r="B266" s="3"/>
+      <c r="C266" s="3"/>
+    </row>
+    <row r="267" spans="1:3">
+      <c r="A267" s="5"/>
+      <c r="B267" s="3"/>
+      <c r="C267" s="3"/>
+    </row>
+    <row r="268" spans="1:3">
+      <c r="A268" s="5"/>
+      <c r="B268" s="3"/>
+      <c r="C268" s="3"/>
+    </row>
+    <row r="269" spans="1:3">
+      <c r="A269" s="5"/>
+      <c r="B269" s="3"/>
+      <c r="C269" s="3"/>
+    </row>
+    <row r="270" spans="1:3">
+      <c r="A270" s="5"/>
+      <c r="B270" s="3"/>
+      <c r="C270" s="3"/>
+    </row>
+    <row r="271" spans="1:3">
+      <c r="A271" s="5"/>
+      <c r="B271" s="3"/>
+      <c r="C271" s="3"/>
+    </row>
+    <row r="272" spans="1:3">
+      <c r="A272" s="5"/>
+      <c r="B272" s="3"/>
+      <c r="C272" s="3"/>
+    </row>
+    <row r="273" spans="1:3">
+      <c r="A273" s="5"/>
+      <c r="B273" s="3"/>
+      <c r="C273" s="3"/>
+    </row>
+    <row r="274" spans="1:3">
+      <c r="A274" s="5"/>
+      <c r="B274" s="3"/>
+      <c r="C274" s="3"/>
+    </row>
+    <row r="275" spans="1:3">
+      <c r="A275" s="5"/>
+      <c r="B275" s="3"/>
+      <c r="C275" s="3"/>
+    </row>
+    <row r="276" spans="1:3">
+      <c r="A276" s="5"/>
+      <c r="B276" s="3"/>
+      <c r="C276" s="3"/>
+    </row>
+    <row r="277" spans="1:3">
+      <c r="A277" s="5"/>
+      <c r="B277" s="3"/>
+      <c r="C277" s="3"/>
+    </row>
+    <row r="278" spans="1:3">
+      <c r="A278" s="5"/>
+      <c r="B278" s="3"/>
+      <c r="C278" s="3"/>
+    </row>
+    <row r="279" spans="1:3">
+      <c r="A279" s="5"/>
+      <c r="B279" s="3"/>
+      <c r="C279" s="3"/>
+    </row>
+    <row r="280" spans="1:3">
+      <c r="A280" s="5"/>
+      <c r="B280" s="3"/>
+      <c r="C280" s="3"/>
+    </row>
+    <row r="281" spans="1:3">
+      <c r="A281" s="5"/>
+      <c r="B281" s="3"/>
+      <c r="C281" s="3"/>
+    </row>
+    <row r="282" spans="1:3">
+      <c r="A282" s="5"/>
+      <c r="B282" s="3"/>
+      <c r="C282" s="3"/>
+    </row>
+    <row r="283" spans="1:3">
+      <c r="A283" s="5"/>
+      <c r="B283" s="3"/>
+      <c r="C283" s="3"/>
+    </row>
+    <row r="284" spans="1:3">
+      <c r="A284" s="5"/>
+      <c r="B284" s="3"/>
+      <c r="C284" s="3"/>
+    </row>
+    <row r="285" spans="1:3">
+      <c r="A285" s="5"/>
+      <c r="B285" s="3"/>
+      <c r="C285" s="3"/>
+    </row>
+    <row r="286" spans="1:3">
+      <c r="A286" s="5"/>
+      <c r="B286" s="3"/>
+      <c r="C286" s="3"/>
+    </row>
+    <row r="287" spans="1:3">
+      <c r="A287" s="5"/>
+      <c r="B287" s="3"/>
+      <c r="C287" s="3"/>
+    </row>
+    <row r="288" spans="1:3">
+      <c r="A288" s="5"/>
+      <c r="B288" s="3"/>
+      <c r="C288" s="3"/>
+    </row>
+    <row r="289" spans="1:3">
+      <c r="A289" s="5"/>
+      <c r="B289" s="3"/>
+      <c r="C289" s="3"/>
+    </row>
+    <row r="290" spans="1:3">
+      <c r="A290" s="5"/>
+      <c r="B290" s="3"/>
+      <c r="C290" s="3"/>
+    </row>
+    <row r="291" spans="1:3">
+      <c r="A291" s="5"/>
+      <c r="B291" s="3"/>
+      <c r="C291" s="3"/>
+    </row>
+    <row r="292" spans="1:3">
+      <c r="A292" s="5"/>
+      <c r="B292" s="3"/>
+      <c r="C292" s="3"/>
+    </row>
+    <row r="293" spans="1:3">
+      <c r="A293" s="5"/>
+      <c r="B293" s="3"/>
+      <c r="C293" s="3"/>
+    </row>
+    <row r="294" spans="1:3">
+      <c r="A294" s="5"/>
+      <c r="B294" s="3"/>
+      <c r="C294" s="3"/>
+    </row>
+    <row r="295" spans="1:3">
+      <c r="A295" s="5"/>
+      <c r="B295" s="3"/>
+      <c r="C295" s="3"/>
+    </row>
+    <row r="296" spans="1:3">
+      <c r="A296" s="5"/>
+      <c r="B296" s="3"/>
+      <c r="C296" s="3"/>
+    </row>
+    <row r="297" spans="1:3">
+      <c r="A297" s="5"/>
+      <c r="B297" s="3"/>
+      <c r="C297" s="3"/>
+    </row>
+    <row r="298" spans="1:3">
+      <c r="A298" s="5"/>
+      <c r="B298" s="3"/>
+      <c r="C298" s="3"/>
+    </row>
+    <row r="299" spans="1:3">
+      <c r="A299" s="5"/>
+      <c r="B299" s="3"/>
+      <c r="C299" s="3"/>
+    </row>
+    <row r="300" spans="1:3">
+      <c r="A300" s="5"/>
+      <c r="B300" s="3"/>
+      <c r="C300" s="3"/>
+    </row>
+    <row r="301" spans="1:3">
+      <c r="A301" s="5"/>
+      <c r="B301" s="3"/>
+      <c r="C301" s="3"/>
+    </row>
+    <row r="302" spans="1:3">
+      <c r="A302" s="5"/>
+      <c r="B302" s="3"/>
+      <c r="C302" s="3"/>
+    </row>
+    <row r="303" spans="1:3">
+      <c r="A303" s="5"/>
+      <c r="B303" s="3"/>
+      <c r="C303" s="3"/>
+    </row>
+    <row r="304" spans="1:3">
+      <c r="A304" s="5"/>
+      <c r="B304" s="3"/>
+      <c r="C304" s="3"/>
+    </row>
+    <row r="305" spans="1:3">
+      <c r="A305" s="5"/>
+      <c r="B305" s="3"/>
+      <c r="C305" s="3"/>
+    </row>
+    <row r="306" spans="1:3">
+      <c r="A306" s="5"/>
+      <c r="B306" s="3"/>
+      <c r="C306" s="3"/>
+    </row>
+    <row r="307" spans="1:3">
+      <c r="A307" s="5"/>
+      <c r="B307" s="3"/>
+      <c r="C307" s="3"/>
+    </row>
+    <row r="308" spans="1:3">
+      <c r="A308" s="5"/>
+      <c r="B308" s="3"/>
+      <c r="C308" s="3"/>
+    </row>
+    <row r="309" spans="1:3">
+      <c r="A309" s="5"/>
+      <c r="B309" s="3"/>
+      <c r="C309" s="3"/>
+    </row>
+    <row r="310" spans="1:3">
+      <c r="A310" s="5"/>
+      <c r="B310" s="3"/>
+      <c r="C310" s="3"/>
+    </row>
+    <row r="311" spans="1:3">
+      <c r="A311" s="5"/>
+      <c r="B311" s="3"/>
+      <c r="C311" s="3"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="B1">
-    <cfRule type="duplicateValues" dxfId="0" priority="4"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B2">
+  <conditionalFormatting sqref="B1 B2 B3:B7 B8:B9 B10 B11:B17 B18 B19:B21 B22:B23 B24:B30 B31:B35 B36 B37:B39 B40:B41 B42:B46 B47:B49 B50:B51 B52 B53 B54:B55 B56 B57 B58 B59:B67 B68 B69:B70 B71:B73 B74 B75:B77 B78 B79:B82 B83:B84 B85 B86 B87 B88:B93 B94:B98 B99:B107 B108:B110 B111:B112 B113 B114 B115:B119 B120:B122 B123:B126 B127:B132 B133:B136 B137 B138 B139 B140 B141 B142 B143 B144 B145:B148 B149:B151 B152:B154 B155 B156 B157:B159 B160:B161 B162 B163:B166 B167:B168 B169 B170 B171:B172 B173 B174:B175 B176 B177 B178:B181 B182:B183 B184:B185 B186:B190 B191 B192:B193 B194 B195 B196 B197:B199 B200:B201 B202:B203 B204 B205 B206:B207 B208 B209 B210 B211 B212 B213:B217 B218:B219 B220:B221 B222:B225 B226 B227:B228 B229 B230 B231 B232 B233:B235 B236 B237:B238 B239 B240 B241:B242 B243 B244 B245:B248 B249:B250 B251 B252 B253 B254 B255:B256 B257:B258 B259:B262 B263 B264 B265 B266 B267 B268 B269:B275 B276:B286 B287:B296 B297:B299 B300 B301 B302:B304 B305:B306 B307:B311">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
